--- a/analysis/thalamus/results/figures_tables/6-Thalamic_nuclei_and_disability/baseline_associations.xlsx
+++ b/analysis/thalamus/results/figures_tables/6-Thalamic_nuclei_and_disability/baseline_associations.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,324 +465,268 @@
           <t>R2</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ΔR2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>WBV</t>
+          <t>CP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.7144</t>
+          <t>-0.153</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3.8e-08</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.1262</t>
+          <t>0.056</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.467, 0.962]</t>
+          <t>[-0.263, -0.0433]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.174</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0173</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>GMV</t>
+          <t>T2LV_log1p</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.4034</t>
+          <t>-0.324</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.1426</t>
+          <t>0.051</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.124, 0.683]</t>
+          <t>[-0.424, -0.225]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.241</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0848</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>WMV</t>
+          <t>PRL_LEVEL[T.1]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.5467</t>
+          <t>-0.006</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.5e-08</t>
+          <t>0.930</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.1001</t>
+          <t>0.098</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.35, 0.743]</t>
+          <t>[-0.201, 0.184]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.175</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0180</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>WTV</t>
+          <t>PRL_LEVEL[T.2]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.3730</t>
+          <t>-0.336</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5.8e-10</t>
+          <t>0.005</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0584</t>
+          <t>0.170</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.258, 0.487]</t>
+          <t>[-0.826, -0.16]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.175</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0180</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>cortical_thickness</t>
+          <t>WBV</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.3614</t>
+          <t>0.714</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.9e-12</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0491</t>
+          <t>0.126</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.265, 0.458]</t>
+          <t>[0.467, 0.962]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.238</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0810</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>CP</t>
+          <t>WTV</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-0.1556</t>
+          <t>0.373</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0562</t>
+          <t>0.058</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.266, -0.0454]</t>
+          <t>[0.258, 0.487]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.247</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0903</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>T2LV_log1p</t>
+          <t>cortical_thickness</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-0.3245</t>
+          <t>0.361</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5.8e-10</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0506</t>
+          <t>0.049</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-0.424, -0.225]</t>
+          <t>[0.265, 0.458]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.24</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>PRL</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-0.1452</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.0509</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[-0.245, -0.0454]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>HAS_PRL[T.1]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-0.1450</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.0939</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[-0.329, 0.039]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>PRL_LEVEL[T.2]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>-0.4932</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0.0058</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.1698</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[-0.826, -0.16]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.17</t>
+          <t>0.253</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0967</t>
         </is>
       </c>
     </row>
@@ -797,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -836,324 +780,268 @@
           <t>R2</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ΔR2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>WBV</t>
+          <t>CP</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-0.3837</t>
+          <t>0.053</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.00038</t>
+          <t>0.272</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.1013</t>
+          <t>0.044</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[-0.582, -0.185]</t>
+          <t>[-0.0338, 0.139]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.245</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0004</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>GMV</t>
+          <t>T2LV_log1p</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-0.2601</t>
+          <t>0.176</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.0826</t>
+          <t>0.041</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-0.422, -0.0982]</t>
+          <t>[0.095, 0.257]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.269</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0240</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>WMV</t>
+          <t>PRL_LEVEL[T.1]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-0.2526</t>
+          <t>0.053</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.416</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.0903</t>
+          <t>0.095</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.43, -0.0756]</t>
+          <t>[-0.109, 0.264]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.259</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0143</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>WTV</t>
+          <t>PRL_LEVEL[T.2]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-0.2553</t>
+          <t>0.308</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9.9e-07</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0479</t>
+          <t>0.143</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[-0.349, -0.161]</t>
+          <t>[0.173, 0.732]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.259</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0143</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>cortical_thickness</t>
+          <t>WBV</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-0.1950</t>
+          <t>-0.384</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.2e-05</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0432</t>
+          <t>0.101</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-0.28, -0.11]</t>
+          <t>[-0.582, -0.185]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.268</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0231</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>CP</t>
+          <t>WTV</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.0535</t>
+          <t>-0.255</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0438</t>
+          <t>0.048</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-0.0322, 0.139]</t>
+          <t>[-0.349, -0.161]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.286</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0416</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>T2LV_log1p</t>
+          <t>cortical_thickness</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.1762</t>
+          <t>-0.195</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>6.9e-05</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0414</t>
+          <t>0.043</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.095, 0.257]</t>
+          <t>[-0.28, -0.11]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.27</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>PRL</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.1024</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.016</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.0413</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[0.0216, 0.183]</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>HAS_PRL[T.1]</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0.1832</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.044</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.0890</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[0.00881, 0.358]</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>PRL_LEVEL[T.2]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0.4522</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.1426</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[0.173, 0.732]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.26</t>
+          <t>0.272</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0270</t>
         </is>
       </c>
     </row>
